--- a/biology/Zoologie/Frank_Collins_Baker/Frank_Collins_Baker.xlsx
+++ b/biology/Zoologie/Frank_Collins_Baker/Frank_Collins_Baker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Collins Baker est un malacologiste et un écologue américain, né le 14 décembre 1867 à Warren dans le Rhode Island et mort le 7 mai 1942 à Urbana dans l'Illinois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Francis Edwin et d’Anna Collins (née Thurber) Baker. Il étudie à l’université Brown (1888) puis au Jessup Scholar de l’Academy of Natural Sciences of Philadelphia (1889-1890). Il se marie avec Lillian May Hall (1892) et obtient son Bachelor of Sciences à Chicago (1896). Baker travaille dans l’entreprise Ward’s Natural Science de New York, un établissement fondé en 1862 par Henry Augustus Ward (1834-1906). Il devient en 1894 conservateur en zoologie au Field Museum of Natural History de Chicago, puis de 1894 à 1915, conservateur à l’Academy of Sciences de Chicago, puis de 1915 à 1917, chercheur à l’école forestière de l’université de Syracuse, et enfin de 1918 à 1939, conservateur au muséum de l’université de l'Illinois à Urbana-Champaign.
 Il fait paraître de nombreuses publications (123) sur les mollusques marins ou d’eau douce notamment dans The Nautilis. Baker est membre de sociétés savantes dont l’Association américaine pour l'avancement de la science, l’American Society of Geology, l’American Paleontological Society, l’Ecological Society of America, l’American Malacological Union (qu’il préside en 1942), la Société nationale Audubon (dont il assure la vice-présidence de 1900 à 1915), membre correspondant de la Zoological Society of London, etc.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1895 : A naturalist in Mexico: being a visit to Cuba, northern Yucatan and Mexico D. Oliphant (Chicago) : 145 p.
 1898-1902 : The Mollusca of the Chicago area (Chicago ?) : deux volumes : 410 p. — le deuxième volume est consultable sur le site d’American Libraries.
@@ -586,7 +602,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robert Tucker Abbott (1974). American Malacologists. A National Register of Professional and Amateur Malacologists and Private Shell Collectors and Biographies of Early American Mollusk Workers Born Between 1618 and 1900, American Malacologists (Falls Church, Virginie) : iv + 494 p.  (ISBN 0-913792-02-0)
 Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
@@ -617,7 +635,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Réalisée à partir de la consultation du catalogue de la Bibliothèque du Congrès (consulté le 23 septembre 2007)
